--- a/hecCalc/2023/documentum/Total_Boq_test.xlsx
+++ b/hecCalc/2023/documentum/Total_Boq_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E974E-4956-4A76-B9CE-5BC9BF92027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FC4601-7A59-4E14-8AB2-2D577E9D3598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="5835" windowWidth="21600" windowHeight="11505" xr2:uid="{9B30654D-78AD-49C3-B3A4-1998541AFA12}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{9B30654D-78AD-49C3-B3A4-1998541AFA12}"/>
   </bookViews>
   <sheets>
     <sheet name="(AR) BOQ" sheetId="2" r:id="rId1"/>
